--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-015 FRP Works (Structures) & Checklist - Rev.7.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-015 FRP Works (Structures) & Checklist - Rev.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE6FE9B-55EA-46A5-8517-7B89F282BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947DD19-1131-484D-A6FB-31D832CB8892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="1755" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="223">
   <si>
     <t>type</t>
   </si>
@@ -67,9 +67,6 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Acceptance Criteria - </t>
   </si>
   <si>
@@ -79,69 +76,9 @@
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-015 FRP Works (Structures) &amp; Checklist - Rev.7</t>
   </si>
   <si>
@@ -151,64 +88,607 @@
     <t>3.0 Installation of cast in-situ structures</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9a - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9b - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18 - </t>
-  </si>
-  <si>
     <t>4.0 Backfill and Compaction</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3 - </t>
-  </si>
-  <si>
     <t>5.0 Conformance check</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3 - </t>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 - Lot Traceability </t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 7.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Prepare a lot map for traceability of the work area.</t>
+  </si>
+  <si>
+    <t>1.3 - Set out</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Setout structure to the location and levels on the drawings. This shall be presented for inspection by the superintendent.</t>
+  </si>
+  <si>
+    <t>1.4 - Underlying Lot Conformance</t>
+  </si>
+  <si>
+    <t>Ref docs - Underlying Lot ITP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Underlying services and/or assets have been installed prior to commencing works over and/or above. Refer underlying lot ITP(s)</t>
+  </si>
+  <si>
+    <t>2.1 - Excavation</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Excavate to the depth nominated on the drawings and remove any loose material at the base.</t>
+  </si>
+  <si>
+    <t>○ Ensure excavation is carried out to a width which will not impede external formwork.</t>
+  </si>
+  <si>
+    <t>2.2 - Unsuitable Material</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1112 Earthworks [Cl 4.6]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Any Unsuitable Material to be removed to the depth as directed by the Superintendent</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>2.3 - Compaction - Foundation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1112 Earthworks [Cl 4.7, 4.13] Spec 0161 [CL 7.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Foundation (including any unsuitable replacement) to be compacted to a relative compaction of 97% modified to a depth of 200mm below foundation level</t>
+  </si>
+  <si>
+    <t>○ Test Frequency = 1 per 500m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>2.4 - Foundation Inspection</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1112 Earthworks [4.7]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Foundation to be inspected by the Superintendent prior to placing blinding</t>
+  </si>
+  <si>
+    <t>2.5 - Blinding</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Stormwater Drainage Structures [Cl 3.6]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Blinding (N15) for Reinforced Concrete Bases to be a 100mm thick mass concrete layer or as otherwise shown on the drawings.</t>
+  </si>
+  <si>
+    <t>○ Unreinforced bases can be poured directly on the earth</t>
+  </si>
+  <si>
+    <t>2.6 - Mating Concrete Surface Preparation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 [CL 3.9]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Construction joints prepared and free of loose material</t>
+  </si>
+  <si>
+    <t>○ Dowelled joints prepared and bond breaker applied for expansion joints if applicable</t>
+  </si>
+  <si>
+    <t>3.1 - Formwork</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 4.0], Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Formwork installed as per drawings and adequately supported. </t>
+  </si>
+  <si>
+    <t>Before Placing Concrete</t>
+  </si>
+  <si>
+    <t>○ Completed formwork to be inspected by the Superintendent prior to concrete placement</t>
+  </si>
+  <si>
+    <t>○ Formwork engineers inspection certificate complete and received</t>
+  </si>
+  <si>
+    <t>Pre-pour inspection</t>
+  </si>
+  <si>
+    <t>3.2 - Steel reinforcement</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 5.0], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Reinforcement installed as per drawings, ensuring sufficient lap length and cover is achieved on all bars. Inspection per layer installed.</t>
+  </si>
+  <si>
+    <t>○ Concrete pre-pour inspection complete.</t>
+  </si>
+  <si>
+    <t>3.3 - Reinforcement Splice Lengths</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 5.7]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Where splicing of reinforcement is not shown on drawings min. lap lengths shown below shall be adopted. (SPT-0002 Table 6)</t>
+  </si>
+  <si>
+    <t>– – – – – – – – – – – – – – – –</t>
+  </si>
+  <si>
+    <t>Table 6 Reinforcement Splice Lengths</t>
+  </si>
+  <si>
+    <t>Reinforcement Size || Lap Length (mm)</t>
+  </si>
+  <si>
+    <t>N12 deformed bar || 500</t>
+  </si>
+  <si>
+    <t>N16 deformed bar || 800</t>
+  </si>
+  <si>
+    <t>N20 deformed bar || 1150</t>
+  </si>
+  <si>
+    <t>N24 deformed bar || 1350</t>
+  </si>
+  <si>
+    <t>N28 deformed bar || 1600</t>
+  </si>
+  <si>
+    <t>Welded wire fabric || 225*Minimum 2 cross wires</t>
+  </si>
+  <si>
+    <t>Trench mesh || 500</t>
+  </si>
+  <si>
+    <t>3.4 - Pit &amp; Pipe Connections</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Stormwater Drainage Structures [Cl 3.3], Spec. 0002 Concrete supply, construction, and grouting [Cl 2.6], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Inlet and outlet pipes to be integrally cast into foundation/pit walls and the joint waterproofed as per design requirements.</t>
+  </si>
+  <si>
+    <t>○ Embedded pipes to be adequately restrained against flotation</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>Remarks / record (eg. test frequency, reports, certificates, checklist etc) - ITP for associated pit/pipe reviewed for conformance</t>
+  </si>
+  <si>
+    <t>3.5 - Installation of Core Holes, Voids, HD Bolts and Embedments</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [CL 2.6, 7.1, 7.2, 7.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Firmly Fixed in position in all directions</t>
+  </si>
+  <si>
+    <t>○ Reinforcement displaced where necessary, bars requiring cutting approved by superintendent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Integrity of surface treatments maintained (galvanising, painting etc) </t>
+  </si>
+  <si>
+    <t>○ Threads covered</t>
+  </si>
+  <si>
+    <t>3.6 - Tolerances of Core Holes, HD Bolts and Embedments</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - HD bolts positioned using a template. Tolerance for HD bolts as per CL 7.2 (see below table)</t>
+  </si>
+  <si>
+    <t>Condition || Tolerance</t>
+  </si>
+  <si>
+    <t>Any 2 bolts within a group || ± 3mm Centre to Centre</t>
+  </si>
+  <si>
+    <t>Adjacent HD bolt groups || ± 6mm Centre to Centre</t>
+  </si>
+  <si>
+    <t>Bolt Projections - From concrete level || + 5mm, -0mm</t>
+  </si>
+  <si>
+    <t>Embedded steel finishing flush with surface || ± 3mm from surface</t>
+  </si>
+  <si>
+    <t>Bolt reduced level || + 5mm, -0mm</t>
+  </si>
+  <si>
+    <t>Verticality of any bolt || 1:300</t>
+  </si>
+  <si>
+    <t>Maximum accumulation of 6 mm per 30,000mm along an established column line of multiple HD bolt groups, but not exceed a total of 25 mm.</t>
+  </si>
+  <si>
+    <t>6 mm from the centre of any HD bolt group to the established column line through that group.</t>
+  </si>
+  <si>
+    <t>*Before poruing concrete of the GT &amp; GEN foundation, MPW TA will check the setting condition of GT &amp; GEN anchor bolt. Witness Point as per MHI ITP.</t>
+  </si>
+  <si>
+    <t>○ Tolerances for other embedded fabricated items in line with AS 3990 or AS4100 as applicable.</t>
+  </si>
+  <si>
+    <t>○ Pre-pour survey performed and recorded to verify location</t>
+  </si>
+  <si>
+    <t>Pre-pour inspection and Survey Records Inc MHI Check Sheet for GT &amp; GTG Anchor Bolt Setting CG-64294</t>
+  </si>
+  <si>
+    <t>3.7 - Earthing for Concrete Structures</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings Spec. 0002 Concrete supply, construction, and grouting [CL 2.6]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Earthing installed for concrete structures as per provided Drawings</t>
+  </si>
+  <si>
+    <t>UGL Earthing FIC</t>
+  </si>
+  <si>
+    <t>3.8 - Concrete Mix and properties</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete compressive strength required (28 days) = </t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved Concrete mix ID = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slump = </t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Material dockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete pour records </t>
+  </si>
+  <si>
+    <t>3.9a - Concrete Supply Temperature - GT Foundation Only</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 8.1.2], Thermal Analysis Report</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Temperature of concrete at the time of placement must be minimum 10°C and maximum 25°C.</t>
+  </si>
+  <si>
+    <t>○ Ambient air temperature at the time of placement must be between 5oC and 30oC.</t>
+  </si>
+  <si>
+    <t>3.9b - Concrete Supply Temperature – Other foundations</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 8.1.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Temperature of concrete at the time of placement must be minimum 10°C and maximum 30°C.</t>
+  </si>
+  <si>
+    <t>○ Ambient air temperature at the time of placement must be between 5oC and 32oC.</t>
+  </si>
+  <si>
+    <t>○ If ambient temperature is between 32oC and 38oC, seek approval from superintendent to proceed by taking special precautions noted in the specification.</t>
+  </si>
+  <si>
+    <t>3.10 - Concrete Placement</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 8.1.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Ensure elapsed time between batching and discharge of the mix does not exceed 1.5 hours.</t>
+  </si>
+  <si>
+    <t>○ Concrete placed in layers ≤ 300mm thick and adequately vibrated avoiding over-vibration.</t>
+  </si>
+  <si>
+    <t>○ Concrete thoroughly compacted – one internal vibrator per 10m3 concrete placed per hour</t>
+  </si>
+  <si>
+    <t>3.11 - Concrete Slump Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Slump Test - One per batch of concrete</t>
+  </si>
+  <si>
+    <t>Slump within tolerances specified in AS 1379</t>
+  </si>
+  <si>
+    <t>Testing to be executed by a NATA accredited test facility</t>
+  </si>
+  <si>
+    <t>Table 5.1 Permissible Tolerance on Slump</t>
+  </si>
+  <si>
+    <t>Specified slump, mm || Tolerance, mm</t>
+  </si>
+  <si>
+    <t>&lt;60 || ±10</t>
+  </si>
+  <si>
+    <t>≥60 ≤80 || ±15</t>
+  </si>
+  <si>
+    <t>&gt;80 ≤110 || ±20</t>
+  </si>
+  <si>
+    <t>&gt;110 ≤150 || ±30</t>
+  </si>
+  <si>
+    <t>&gt;150 || ±40</t>
+  </si>
+  <si>
+    <t>Concrete pour record</t>
+  </si>
+  <si>
+    <t>3.12 - Concrete Compressive Strength Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Compressive Strength Testing - 2 x 7day and 2 x 28day per 50m3</t>
+  </si>
+  <si>
+    <t>○ Testing to be executed by a NATA accredited test facility</t>
+  </si>
+  <si>
+    <t>3.13 - Surface finish</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.2], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Concrete surfaces shall be true and even, free from honeycombed surface depressions or rejections.</t>
+  </si>
+  <si>
+    <t>WITNESS POINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 day prior </t>
+  </si>
+  <si>
+    <t>○ Formed surfaces conform with surface finish requirements of AS3610 for the surface class nominated.</t>
+  </si>
+  <si>
+    <t>Key - W</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>3.14 - Surface Treatments</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Any surface treatments to be applied are approved for use and appropriate dose rates have been determined</t>
+  </si>
+  <si>
+    <t>3.15 - Joints</t>
+  </si>
+  <si>
+    <t>Ref docs - As per drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - As per design drawings. Sawn joints to commence as soon as the concrete has hardened sufficiently.</t>
+  </si>
+  <si>
+    <t>3.16 - Curing</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - From completion of finishing cure continuously with an approved method for a min period of 7 days or as directed by the Superintendent.</t>
+  </si>
+  <si>
+    <t>a. Ordinary Portland cement concrete – 7 days</t>
+  </si>
+  <si>
+    <t>b. High early strength concrete – 3 days</t>
+  </si>
+  <si>
+    <t>c. Concrete with cement or pozzolan materials – 10 days</t>
+  </si>
+  <si>
+    <t>3.17 - Stripping of formwork</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 4.4.5]</t>
+  </si>
+  <si>
+    <t>Member Type || Member || *Effective Span mm || Minimum Stripping Time (days) for Average Air Temperature during period prior to Stripping</t>
+  </si>
+  <si>
+    <t>- || - || - || 20°C and over || 10°C to 20°C || 4°C to 10°C || Under 4°C</t>
+  </si>
+  <si>
+    <t>Vertical Unloaded || Wall, column, beam side, slab side || 0 || 2 || 3 || 5 || 7</t>
+  </si>
+  <si>
+    <t>Vertical Loadbearing || Wall, column Or loadbearing Structure || 0 || 5 || 6 || 7 || 9</t>
+  </si>
+  <si>
+    <t>Horizontal || Slab || Under 3000, 3000-6000, Over 6000 || 7, 10, 14 || 10, 14, 21 || 14, 21, 28 || 21, 28, 28</t>
+  </si>
+  <si>
+    <t>Horizontal || Beam || Under 3000, 3000-6000, Over 6000 || 10, 14, 21, || 14, 21, 28 || 21, 28, 28 || 28, 28, 28</t>
+  </si>
+  <si>
+    <t>* Effective span is the maximum distance between supports (either temporary or permanent)</t>
+  </si>
+  <si>
+    <t>3.18 - Concrete Repair (If required)</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 Concrete supply, construction, and grouting [Cl 8.7]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Defective concrete shall be repaired or replaced. The materials and techniques of repair shall be examined and approved by the Superintendent prior to the commencement of repairs.</t>
+  </si>
+  <si>
+    <t>Grout Placement Checklist</t>
+  </si>
+  <si>
+    <t>Approved Aconex Corro for Repair Methodology</t>
+  </si>
+  <si>
+    <t>4.1 - Structure Backfill</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1112 Earthworks [Cl 4.10]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Backfill to be Select fill for material within 1.5m of pavement and General Fill below 1.5m deep.</t>
+  </si>
+  <si>
+    <t>Material Test Report</t>
+  </si>
+  <si>
+    <t>○ Placed in layers of maximum compacted thickness of 150mm</t>
+  </si>
+  <si>
+    <t>○ Select backfill material to be a granular material with a maximum particle size of 50mm and a PI between 2 &amp; 12</t>
+  </si>
+  <si>
+    <t>4.2 - Compaction - Backfill</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1112 Earthworks [Cl 4.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Minimum relative compaction requirements for backfill against structures to be:</t>
+  </si>
+  <si>
+    <t>97% for select fill</t>
+  </si>
+  <si>
+    <t>92% for general fill</t>
+  </si>
+  <si>
+    <t>○ Test Frequency = 1 per layer</t>
+  </si>
+  <si>
+    <t>4.3 - Moisture Content</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1112 Earthworks [Cl 4.13 &amp; 7.1]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Moisture Content for Backfill material to be within 60% to 90% OMC unless otherwise approved by Superintendent</t>
+  </si>
+  <si>
+    <t>5.1 - Survey Report</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.13], AS3610</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - An as-built survey of the structure has been completed to ensure all structures are within the following construction tolerances:</t>
+  </si>
+  <si>
+    <t>○ Absolute position in plan shall be within 10 mm.</t>
+  </si>
+  <si>
+    <t>○ Floor to floor plumb shall not exceed 0.002 times the dimension between the floors or 10 mm whichever is the greater.</t>
+  </si>
+  <si>
+    <t>○ Deviation from the specified dimension shall not exceed 0.001 times the specified dimension or 5mm, whichever is the greater.</t>
+  </si>
+  <si>
+    <t>Survey report</t>
+  </si>
+  <si>
+    <t>5.2 - Concrete Test Results</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 [Cl 8.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Certificates received, reviewed and conforming to requirements for each pour.</t>
+  </si>
+  <si>
+    <t>5.3 - Acceptance and closure of non-conforming items</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.8]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - NCRs to be opened for non-conforming items and closed prior to closing construction lot.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +1034,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -715,7 +1201,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -731,6 +1217,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1087,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1147,24 +1639,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1172,7 +1664,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1180,7 +1672,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1199,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1207,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1215,15 +1707,15 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1231,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1239,7 +1731,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,7 +1750,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,15 +1766,15 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,7 +1817,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,15 +1825,15 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,23 +1884,23 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,7 +1916,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1935,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,15 +1951,15 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,7 +1967,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,26 +1975,26 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +2002,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,42 +2010,39 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>28</v>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>15</v>
+      <c r="A48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,7 +2050,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,23 +2058,26 @@
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>39</v>
+      <c r="A53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>29</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,34 +2093,31 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>20</v>
+      <c r="A59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,15 +2125,15 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>30</v>
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,26 +2141,26 @@
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>16</v>
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,23 +2176,23 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>39</v>
+      <c r="A67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,26 +2208,26 @@
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,23 +2243,23 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>42</v>
+      <c r="A75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1778,7 +2267,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,26 +2275,26 @@
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1813,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,42 +2310,39 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
+      <c r="A85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>12</v>
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,7 +2358,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,15 +2366,15 @@
         <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>35</v>
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1896,26 +2382,26 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>16</v>
+      <c r="A92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>12</v>
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,7 +2409,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,7 +2417,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,42 +2425,39 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>34</v>
+      <c r="A97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>15</v>
+      <c r="A98" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>16</v>
+      <c r="A99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>12</v>
+      <c r="A100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,7 +2465,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,23 +2481,26 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>33</v>
+      <c r="A104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>15</v>
+      <c r="A105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2022,18 +2508,15 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>12</v>
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,7 +2524,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,31 +2532,31 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>43</v>
+      <c r="A111" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>15</v>
+      <c r="A112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,18 +2564,15 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>12</v>
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,7 +2580,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,15 +2596,15 @@
         <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>44</v>
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,18 +2620,15 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>12</v>
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2644,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2175,15 +2652,15 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>45</v>
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2218,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,7 +2703,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2234,15 +2711,15 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2258,18 +2735,15 @@
         <v>13</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>12</v>
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,15 +2751,18 @@
         <v>13</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>20</v>
+      <c r="A137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,15 +2770,15 @@
         <v>13</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>49</v>
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,26 +2794,23 @@
         <v>13</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>12</v>
+      <c r="A142" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>19</v>
+      <c r="A143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2344,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,15 +2826,15 @@
         <v>13</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>46</v>
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2368,7 +2842,7 @@
         <v>13</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,7 +2850,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,7 +2877,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,15 +2885,15 @@
         <v>13</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,7 +2901,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,18 +2909,15 @@
         <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>12</v>
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,7 +2933,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,15 +2941,15 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>50</v>
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2494,18 +2965,15 @@
         <v>13</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>12</v>
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2521,7 +2989,7 @@
         <v>13</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,15 +2997,15 @@
         <v>13</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>51</v>
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,7 +3013,7 @@
         <v>13</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2553,18 +3021,15 @@
         <v>13</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>12</v>
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,15 +3037,18 @@
         <v>13</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>20</v>
+      <c r="A172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,15 +3056,15 @@
         <v>13</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>52</v>
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,546 +3080,531 @@
         <v>13</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B182" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B182" s="1" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B194" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C194" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B195" s="4" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3159,18 +3612,15 @@
         <v>13</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>12</v>
+      <c r="A242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3178,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,7 +3636,7 @@
         <v>13</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,15 +3644,15 @@
         <v>13</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>62</v>
+      <c r="A246" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,26 +3660,26 @@
         <v>13</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>16</v>
+      <c r="A248" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>12</v>
+      <c r="A249" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3237,7 +3687,7 @@
         <v>13</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3245,7 +3695,7 @@
         <v>13</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3253,7 +3703,1134 @@
         <v>13</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
